--- a/02_Projectmanagement/Projectplan V0.3.xlsx
+++ b/02_Projectmanagement/Projectplan V0.3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="958" documentId="8_{1A75DD6F-C1A7-4725-9B06-95744FAF8ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6424BF86-6578-4FDC-8811-1F2BAA03AD1E}"/>
+  <xr:revisionPtr revIDLastSave="959" documentId="8_{1A75DD6F-C1A7-4725-9B06-95744FAF8ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83969E54-5EF9-4950-9DB1-7A84E06924A9}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -357,7 +357,7 @@
     <t>Uncond. model Refill</t>
   </si>
   <si>
-    <t>Cond. model DDPM / SD</t>
+    <t>Cond. model DDPM</t>
   </si>
 </sst>
 </file>
@@ -654,7 +654,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -698,7 +698,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -1978,7 +1977,7 @@
   <dimension ref="A1:AF25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2564,7 +2563,6 @@
       <c r="F25" s="33"/>
       <c r="G25" s="33"/>
       <c r="H25" s="33"/>
-      <c r="I25" s="35"/>
       <c r="J25" s="24" t="s">
         <v>85</v>
       </c>

--- a/02_Projectmanagement/Projectplan V0.3.xlsx
+++ b/02_Projectmanagement/Projectplan V0.3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="959" documentId="8_{1A75DD6F-C1A7-4725-9B06-95744FAF8ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83969E54-5EF9-4950-9DB1-7A84E06924A9}"/>
+  <xr:revisionPtr revIDLastSave="961" documentId="8_{1A75DD6F-C1A7-4725-9B06-95744FAF8ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D89C4CEC-ADF3-47FE-B624-0AFE1E9A3B9D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="111">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -358,6 +358,9 @@
   </si>
   <si>
     <t>Cond. model DDPM</t>
+  </si>
+  <si>
+    <t>BraTS Challen.</t>
   </si>
 </sst>
 </file>
@@ -1976,41 +1979,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="11" width="11.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" customWidth="1"/>
-    <col min="18" max="19" width="11.85546875" customWidth="1"/>
-    <col min="20" max="29" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="11" width="11.81640625" customWidth="1"/>
+    <col min="12" max="12" width="14.54296875" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" customWidth="1"/>
+    <col min="14" max="14" width="12.7265625" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" customWidth="1"/>
+    <col min="16" max="16" width="14.453125" customWidth="1"/>
+    <col min="17" max="17" width="13.1796875" customWidth="1"/>
+    <col min="18" max="19" width="11.81640625" customWidth="1"/>
+    <col min="20" max="29" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:25" ht="33.5" x14ac:dyDescent="0.75">
       <c r="A1" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="J2" s="24"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="J3" s="24"/>
     </row>
-    <row r="4" spans="1:25" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="25" t="s">
         <v>31</v>
       </c>
@@ -2022,7 +2025,7 @@
       </c>
       <c r="J5" s="24"/>
     </row>
-    <row r="6" spans="1:25" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="10" t="s">
         <v>32</v>
       </c>
@@ -2035,7 +2038,7 @@
       <c r="E6" s="6"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="3"/>
       <c r="C7" s="10" t="s">
         <v>88</v>
@@ -2049,7 +2052,7 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
         <v>89</v>
@@ -2066,7 +2069,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
@@ -2085,7 +2088,7 @@
       </c>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:25" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
@@ -2105,7 +2108,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3"/>
       <c r="C11" s="16"/>
       <c r="D11" s="3" t="s">
@@ -2129,7 +2132,7 @@
       </c>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:25" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -2152,7 +2155,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -2175,7 +2178,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -2200,7 +2203,7 @@
       </c>
       <c r="S14" s="6"/>
     </row>
-    <row r="15" spans="1:25" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -2227,7 +2230,7 @@
       </c>
       <c r="U15" s="6"/>
     </row>
-    <row r="16" spans="1:25" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -2260,7 +2263,7 @@
       </c>
       <c r="Y16" s="6"/>
     </row>
-    <row r="17" spans="2:32" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:32" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -2273,7 +2276,9 @@
       <c r="M17" s="3"/>
       <c r="O17" s="12"/>
       <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
+      <c r="Q17" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="R17" s="3" t="s">
         <v>72</v>
       </c>
@@ -2292,7 +2297,7 @@
       </c>
       <c r="AC17" s="6"/>
     </row>
-    <row r="18" spans="2:32" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:32" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2323,7 +2328,7 @@
       </c>
       <c r="AF18" s="6"/>
     </row>
-    <row r="19" spans="2:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2347,7 +2352,7 @@
       <c r="AB19" s="3"/>
       <c r="AD19" s="12"/>
     </row>
-    <row r="20" spans="2:32" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:32" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="21"/>
@@ -2370,7 +2375,7 @@
       <c r="AB20" s="3"/>
       <c r="AD20" s="12"/>
     </row>
-    <row r="21" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="26" t="s">
         <v>33</v>
       </c>
@@ -2459,11 +2464,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:32" x14ac:dyDescent="0.35">
       <c r="F22" s="1"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>2</v>
       </c>
@@ -2552,11 +2557,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B24" s="15"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:32" x14ac:dyDescent="0.35">
       <c r="E25" s="33" t="s">
         <v>86</v>
       </c>

--- a/02_Projectmanagement/Projectplan V0.3.xlsx
+++ b/02_Projectmanagement/Projectplan V0.3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="961" documentId="8_{1A75DD6F-C1A7-4725-9B06-95744FAF8ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D89C4CEC-ADF3-47FE-B624-0AFE1E9A3B9D}"/>
+  <xr:revisionPtr revIDLastSave="965" documentId="8_{1A75DD6F-C1A7-4725-9B06-95744FAF8ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59ABA0E0-AAD9-459B-A9DC-E49095EA3970}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="112">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -361,6 +361,9 @@
   </si>
   <si>
     <t>BraTS Challen.</t>
+  </si>
+  <si>
+    <t>Strengths and weaknesses</t>
   </si>
 </sst>
 </file>
@@ -1980,40 +1983,40 @@
   <dimension ref="A1:AF25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="L5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
-    <col min="3" max="11" width="11.81640625" customWidth="1"/>
-    <col min="12" max="12" width="14.54296875" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" customWidth="1"/>
-    <col min="14" max="14" width="12.7265625" customWidth="1"/>
-    <col min="15" max="15" width="11.81640625" customWidth="1"/>
-    <col min="16" max="16" width="14.453125" customWidth="1"/>
-    <col min="17" max="17" width="13.1796875" customWidth="1"/>
-    <col min="18" max="19" width="11.81640625" customWidth="1"/>
-    <col min="20" max="29" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="11" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" customWidth="1"/>
+    <col min="18" max="19" width="11.85546875" customWidth="1"/>
+    <col min="20" max="29" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="33.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:25" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A1" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="J2" s="24"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="J3" s="24"/>
     </row>
-    <row r="4" spans="1:25" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:25" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:25" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
         <v>31</v>
       </c>
@@ -2025,7 +2028,7 @@
       </c>
       <c r="J5" s="24"/>
     </row>
-    <row r="6" spans="1:25" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:25" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
         <v>32</v>
       </c>
@@ -2038,7 +2041,7 @@
       <c r="E6" s="6"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="10" t="s">
         <v>88</v>
@@ -2052,7 +2055,7 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
         <v>89</v>
@@ -2069,7 +2072,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
@@ -2088,7 +2091,7 @@
       </c>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:25" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:25" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
@@ -2108,7 +2111,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:25" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="16"/>
       <c r="D11" s="3" t="s">
@@ -2132,7 +2135,7 @@
       </c>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:25" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:25" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -2155,7 +2158,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:25" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -2178,7 +2181,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:25" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -2203,7 +2206,7 @@
       </c>
       <c r="S14" s="6"/>
     </row>
-    <row r="15" spans="1:25" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:25" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -2230,7 +2233,7 @@
       </c>
       <c r="U15" s="6"/>
     </row>
-    <row r="16" spans="1:25" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:25" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -2263,7 +2266,7 @@
       </c>
       <c r="Y16" s="6"/>
     </row>
-    <row r="17" spans="2:32" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:32" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -2280,7 +2283,7 @@
         <v>110</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>70</v>
@@ -2297,7 +2300,7 @@
       </c>
       <c r="AC17" s="6"/>
     </row>
-    <row r="18" spans="2:32" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:32" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2310,7 +2313,7 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T18" s="3"/>
       <c r="W18" s="12"/>
@@ -2328,7 +2331,7 @@
       </c>
       <c r="AF18" s="6"/>
     </row>
-    <row r="19" spans="2:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2341,7 +2344,7 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T19" s="3"/>
       <c r="W19" s="12"/>
@@ -2352,7 +2355,7 @@
       <c r="AB19" s="3"/>
       <c r="AD19" s="12"/>
     </row>
-    <row r="20" spans="2:32" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:32" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="21"/>
@@ -2365,7 +2368,9 @@
       <c r="N20" s="22"/>
       <c r="O20" s="23"/>
       <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
+      <c r="R20" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="T20" s="3"/>
       <c r="W20" s="12"/>
       <c r="X20" s="30"/>
@@ -2375,7 +2380,7 @@
       <c r="AB20" s="3"/>
       <c r="AD20" s="12"/>
     </row>
-    <row r="21" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="26" t="s">
         <v>33</v>
       </c>
@@ -2464,11 +2469,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:32" x14ac:dyDescent="0.25">
       <c r="F22" s="1"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>2</v>
       </c>
@@ -2557,11 +2562,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B24" s="15"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:32" x14ac:dyDescent="0.25">
       <c r="E25" s="33" t="s">
         <v>86</v>
       </c>
